--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2505.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2505.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.948655428882317</v>
+        <v>1.227462887763977</v>
       </c>
       <c r="B1">
-        <v>4.890684706867389</v>
+        <v>2.795978546142578</v>
       </c>
       <c r="C1">
-        <v>2.740672393550249</v>
+        <v>3.417288541793823</v>
       </c>
       <c r="D1">
-        <v>2.565269722611529</v>
+        <v>3.80321216583252</v>
       </c>
       <c r="E1">
-        <v>3.333706754106578</v>
+        <v>0.8894218802452087</v>
       </c>
     </row>
   </sheetData>
